--- a/nuno-dataset/test-oxigen-01/content/results/metrics_9_7.xlsx
+++ b/nuno-dataset/test-oxigen-01/content/results/metrics_9_7.xlsx
@@ -478,32 +478,32 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_9_7_9</t>
+          <t>model_9_7_0</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.8780369861062149</v>
+        <v>0.7587179157229249</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8450719603672661</v>
+        <v>0.7799532191184506</v>
       </c>
       <c r="D2" t="n">
-        <v>0.4333318708495671</v>
+        <v>0.9732464376637572</v>
       </c>
       <c r="E2" t="n">
-        <v>0.608549800246327</v>
+        <v>0.9141328234428118</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1349771171808243</v>
+        <v>0.2670281827449799</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1174423322081566</v>
+        <v>0.2104353606700897</v>
       </c>
       <c r="H2" t="n">
-        <v>0.6627386808395386</v>
+        <v>0.06531330198049545</v>
       </c>
       <c r="I2" t="n">
-        <v>0.3740518987178802</v>
+        <v>0.1421425491571426</v>
       </c>
     </row>
     <row r="3">
@@ -513,524 +513,524 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.8811639880758727</v>
+        <v>0.7972219277606299</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8609130782422382</v>
+        <v>0.7492066339061014</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8311302029773737</v>
+        <v>0.9605046115323883</v>
       </c>
       <c r="E3" t="n">
-        <v>0.8443219186984782</v>
+        <v>0.8958862268751013</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1315164417028427</v>
+        <v>0.2244155704975128</v>
       </c>
       <c r="G3" t="n">
-        <v>0.1054340600967407</v>
+        <v>0.2398389726877213</v>
       </c>
       <c r="H3" t="n">
-        <v>0.1974992901086807</v>
+        <v>0.09641984105110168</v>
       </c>
       <c r="I3" t="n">
-        <v>0.1487588584423065</v>
+        <v>0.1723475605249405</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_9_7_10</t>
+          <t>model_9_7_2</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.8855161403448989</v>
+        <v>0.80190298743632</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8195350759227813</v>
+        <v>0.7416314807845422</v>
       </c>
       <c r="D4" t="n">
-        <v>0.4633146914529699</v>
+        <v>0.9611490682799176</v>
       </c>
       <c r="E4" t="n">
-        <v>0.6150944211833121</v>
+        <v>0.8940165679359064</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1266999095678329</v>
+        <v>0.2192350178956985</v>
       </c>
       <c r="G4" t="n">
-        <v>0.1368004232645035</v>
+        <v>0.2470832467079163</v>
       </c>
       <c r="H4" t="n">
-        <v>0.6276727318763733</v>
+        <v>0.09484653174877167</v>
       </c>
       <c r="I4" t="n">
-        <v>0.3677981793880463</v>
+        <v>0.1754425764083862</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_9_7_12</t>
+          <t>model_9_7_3</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.8878248300364094</v>
+        <v>0.8601416534317192</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8300466479931421</v>
+        <v>0.7733421478147926</v>
       </c>
       <c r="D5" t="n">
-        <v>0.4605383224781684</v>
+        <v>0.9538995397028258</v>
       </c>
       <c r="E5" t="n">
-        <v>0.6179088965843611</v>
+        <v>0.8986839488134108</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1241448596119881</v>
+        <v>0.1547819674015045</v>
       </c>
       <c r="G5" t="n">
-        <v>0.1288321912288666</v>
+        <v>0.216757670044899</v>
       </c>
       <c r="H5" t="n">
-        <v>0.6309198141098022</v>
+        <v>0.1125447601079941</v>
       </c>
       <c r="I5" t="n">
-        <v>0.3651087880134583</v>
+        <v>0.1677162796258926</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_9_7_11</t>
+          <t>model_9_7_4</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.8879138190203302</v>
+        <v>0.8794811137173297</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8241668651153181</v>
+        <v>0.732027535627271</v>
       </c>
       <c r="D6" t="n">
-        <v>0.4692254407933968</v>
+        <v>0.9184805961116117</v>
       </c>
       <c r="E6" t="n">
-        <v>0.6204439662311169</v>
+        <v>0.8614670457287493</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1240463778376579</v>
+        <v>0.1333788931369781</v>
       </c>
       <c r="G6" t="n">
-        <v>0.1332893222570419</v>
+        <v>0.2562676668167114</v>
       </c>
       <c r="H6" t="n">
-        <v>0.6207598447799683</v>
+        <v>0.199012815952301</v>
       </c>
       <c r="I6" t="n">
-        <v>0.3626863956451416</v>
+        <v>0.2293242961168289</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_9_7_14</t>
+          <t>model_9_7_5</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.889408462278931</v>
+        <v>0.8910793689412591</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8587267941540471</v>
+        <v>0.7261107164228393</v>
       </c>
       <c r="D7" t="n">
-        <v>0.4189718723100095</v>
+        <v>0.9246496271479849</v>
       </c>
       <c r="E7" t="n">
-        <v>0.6060130632575993</v>
+        <v>0.8639387384512229</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1223922520875931</v>
+        <v>0.120543047785759</v>
       </c>
       <c r="G7" t="n">
-        <v>0.1070913746953011</v>
+        <v>0.2619260549545288</v>
       </c>
       <c r="H7" t="n">
-        <v>0.6795332431793213</v>
+        <v>0.1839523911476135</v>
       </c>
       <c r="I7" t="n">
-        <v>0.3764759302139282</v>
+        <v>0.225232720375061</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_9_7_13</t>
+          <t>model_9_7_8</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.8908354584990986</v>
+        <v>0.897164092096124</v>
       </c>
       <c r="C8" t="n">
-        <v>0.8610982678147819</v>
+        <v>0.6979406884373178</v>
       </c>
       <c r="D8" t="n">
-        <v>0.4346243123296972</v>
+        <v>0.9338625567694548</v>
       </c>
       <c r="E8" t="n">
-        <v>0.6160236289124322</v>
+        <v>0.86171703777787</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1208129748702049</v>
+        <v>0.1138090416789055</v>
       </c>
       <c r="G8" t="n">
-        <v>0.1052936762571335</v>
+        <v>0.2888656854629517</v>
       </c>
       <c r="H8" t="n">
-        <v>0.6612271666526794</v>
+        <v>0.1614609211683273</v>
       </c>
       <c r="I8" t="n">
-        <v>0.3669102787971497</v>
+        <v>0.2289104610681534</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_9_7_23</t>
+          <t>model_9_7_6</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.8908396013503396</v>
+        <v>0.8978966253786839</v>
       </c>
       <c r="C9" t="n">
-        <v>0.8450382812578228</v>
+        <v>0.7259137755971721</v>
       </c>
       <c r="D9" t="n">
-        <v>0.4192775589378707</v>
+        <v>0.930289623309864</v>
       </c>
       <c r="E9" t="n">
-        <v>0.6004408474372898</v>
+        <v>0.8677926756423322</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1208084002137184</v>
+        <v>0.1129983514547348</v>
       </c>
       <c r="G9" t="n">
-        <v>0.1174678653478622</v>
+        <v>0.262114405632019</v>
       </c>
       <c r="H9" t="n">
-        <v>0.6791757345199585</v>
+        <v>0.1701835095882416</v>
       </c>
       <c r="I9" t="n">
-        <v>0.381800502538681</v>
+        <v>0.2188529968261719</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_9_7_2</t>
+          <t>model_9_7_9</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.8914294818193235</v>
+        <v>0.8983847029090337</v>
       </c>
       <c r="C10" t="n">
-        <v>0.8402074842000735</v>
+        <v>0.7039491684752335</v>
       </c>
       <c r="D10" t="n">
-        <v>0.7914405920502182</v>
+        <v>0.9334645774793513</v>
       </c>
       <c r="E10" t="n">
-        <v>0.8127651470124005</v>
+        <v>0.8632780183246735</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1201555728912354</v>
+        <v>0.1124581918120384</v>
       </c>
       <c r="G10" t="n">
-        <v>0.1211298331618309</v>
+        <v>0.2831196188926697</v>
       </c>
       <c r="H10" t="n">
-        <v>0.2439177185297012</v>
+        <v>0.1624325215816498</v>
       </c>
       <c r="I10" t="n">
-        <v>0.1789130568504333</v>
+        <v>0.2263264507055283</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_9_7_15</t>
+          <t>model_9_7_7</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.8920614373694162</v>
+        <v>0.8989599486019595</v>
       </c>
       <c r="C11" t="n">
-        <v>0.8565712140842283</v>
+        <v>0.7281484259033211</v>
       </c>
       <c r="D11" t="n">
-        <v>0.4360900341936941</v>
+        <v>0.9301784621590716</v>
       </c>
       <c r="E11" t="n">
-        <v>0.6149671189639813</v>
+        <v>0.8683991267864132</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1194561719894409</v>
+        <v>0.1118215695023537</v>
       </c>
       <c r="G11" t="n">
-        <v>0.1087253987789154</v>
+        <v>0.2599773705005646</v>
       </c>
       <c r="H11" t="n">
-        <v>0.6595129370689392</v>
+        <v>0.1704548746347427</v>
       </c>
       <c r="I11" t="n">
-        <v>0.3679198324680328</v>
+        <v>0.21784907579422</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>model_9_7_22</t>
+          <t>model_9_7_10</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.8932881780216927</v>
+        <v>0.8995707380421577</v>
       </c>
       <c r="C12" t="n">
-        <v>0.845020853671242</v>
+        <v>0.709305896173531</v>
       </c>
       <c r="D12" t="n">
-        <v>0.4362529745465885</v>
+        <v>0.9339001531009218</v>
       </c>
       <c r="E12" t="n">
-        <v>0.6102103143364319</v>
+        <v>0.8652195840683823</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1180985495448112</v>
+        <v>0.1111456006765366</v>
       </c>
       <c r="G12" t="n">
-        <v>0.1174810752272606</v>
+        <v>0.2779968976974487</v>
       </c>
       <c r="H12" t="n">
-        <v>0.6593223810195923</v>
+        <v>0.1613691449165344</v>
       </c>
       <c r="I12" t="n">
-        <v>0.3724652230739594</v>
+        <v>0.2231124192476273</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>model_9_7_8</t>
+          <t>model_9_7_11</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.8938392023538489</v>
+        <v>0.9001124652884568</v>
       </c>
       <c r="C13" t="n">
-        <v>0.8363362199835008</v>
+        <v>0.7109293644357265</v>
       </c>
       <c r="D13" t="n">
-        <v>0.5630677117162179</v>
+        <v>0.9341121345928806</v>
       </c>
       <c r="E13" t="n">
-        <v>0.6796037816352931</v>
+        <v>0.8658626917567929</v>
       </c>
       <c r="F13" t="n">
-        <v>0.1174887269735336</v>
+        <v>0.1105460673570633</v>
       </c>
       <c r="G13" t="n">
-        <v>0.1240644156932831</v>
+        <v>0.2764443159103394</v>
       </c>
       <c r="H13" t="n">
-        <v>0.5110080242156982</v>
+        <v>0.1608516275882721</v>
       </c>
       <c r="I13" t="n">
-        <v>0.3061559796333313</v>
+        <v>0.2220478504896164</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>model_9_7_0</t>
+          <t>model_9_7_15</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.8954210910805259</v>
+        <v>0.9003235094563341</v>
       </c>
       <c r="C14" t="n">
-        <v>0.9291016463631305</v>
+        <v>0.7090279062858289</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9009160165317391</v>
+        <v>0.9334002673737887</v>
       </c>
       <c r="E14" t="n">
-        <v>0.9131545062093978</v>
+        <v>0.8647872894507644</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1157380342483521</v>
+        <v>0.1103125065565109</v>
       </c>
       <c r="G14" t="n">
-        <v>0.05374410003423691</v>
+        <v>0.278262734413147</v>
       </c>
       <c r="H14" t="n">
-        <v>0.1158822774887085</v>
+        <v>0.1625895202159882</v>
       </c>
       <c r="I14" t="n">
-        <v>0.08298557996749878</v>
+        <v>0.2238280475139618</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>model_9_7_21</t>
+          <t>model_9_7_12</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.8965351952938128</v>
+        <v>0.9003651108087392</v>
       </c>
       <c r="C15" t="n">
-        <v>0.8367467934501768</v>
+        <v>0.7108636695988717</v>
       </c>
       <c r="D15" t="n">
-        <v>0.4646511303284522</v>
+        <v>0.9334874996331853</v>
       </c>
       <c r="E15" t="n">
-        <v>0.6230913296153757</v>
+        <v>0.8654088955074073</v>
       </c>
       <c r="F15" t="n">
-        <v>0.1145050525665283</v>
+        <v>0.1102664619684219</v>
       </c>
       <c r="G15" t="n">
-        <v>0.1237531751394272</v>
+        <v>0.276507169008255</v>
       </c>
       <c r="H15" t="n">
-        <v>0.6261097192764282</v>
+        <v>0.1623765528202057</v>
       </c>
       <c r="I15" t="n">
-        <v>0.3601567149162292</v>
+        <v>0.2227990329265594</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>model_9_7_6</t>
+          <t>model_9_7_14</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.8975432553704006</v>
+        <v>0.9005646039232871</v>
       </c>
       <c r="C16" t="n">
-        <v>0.8286592193097038</v>
+        <v>0.7114466442808289</v>
       </c>
       <c r="D16" t="n">
-        <v>0.6779051004560377</v>
+        <v>0.9332612501194234</v>
       </c>
       <c r="E16" t="n">
-        <v>0.7425225991368614</v>
+        <v>0.8654301832605388</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1133894249796867</v>
+        <v>0.1100456863641739</v>
       </c>
       <c r="G16" t="n">
-        <v>0.1298839300870895</v>
+        <v>0.275949627161026</v>
       </c>
       <c r="H16" t="n">
-        <v>0.3767015337944031</v>
+        <v>0.162928894162178</v>
       </c>
       <c r="I16" t="n">
-        <v>0.246033638715744</v>
+        <v>0.222763791680336</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>model_9_7_20</t>
+          <t>model_9_7_13</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.8991629573146401</v>
+        <v>0.9006682963766114</v>
       </c>
       <c r="C17" t="n">
-        <v>0.8483300238918269</v>
+        <v>0.7125192790214938</v>
       </c>
       <c r="D17" t="n">
-        <v>0.4741248972777408</v>
+        <v>0.9333748707263577</v>
       </c>
       <c r="E17" t="n">
-        <v>0.6334128404821475</v>
+        <v>0.8658369498351863</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1115968897938728</v>
+        <v>0.1099309250712395</v>
       </c>
       <c r="G17" t="n">
-        <v>0.1149725764989853</v>
+        <v>0.2749238610267639</v>
       </c>
       <c r="H17" t="n">
-        <v>0.6150298118591309</v>
+        <v>0.1626515090465546</v>
       </c>
       <c r="I17" t="n">
-        <v>0.3502939343452454</v>
+        <v>0.2220904231071472</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>model_9_7_19</t>
+          <t>model_9_7_16</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.8991750491833748</v>
+        <v>0.9009976993102151</v>
       </c>
       <c r="C18" t="n">
-        <v>0.8444427074424062</v>
+        <v>0.712578044845916</v>
       </c>
       <c r="D18" t="n">
-        <v>0.4791947295468011</v>
+        <v>0.9339619399510605</v>
       </c>
       <c r="E18" t="n">
-        <v>0.6347015487912917</v>
+        <v>0.8662633656064305</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1115835160017014</v>
+        <v>0.1095663756132126</v>
       </c>
       <c r="G18" t="n">
-        <v>0.1179193258285522</v>
+        <v>0.2748676538467407</v>
       </c>
       <c r="H18" t="n">
-        <v>0.6091004610061646</v>
+        <v>0.1612183153629303</v>
       </c>
       <c r="I18" t="n">
-        <v>0.3490625023841858</v>
+        <v>0.2213845700025558</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>model_9_7_16</t>
+          <t>model_9_7_17</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.9001661518032378</v>
+        <v>0.9019957757101483</v>
       </c>
       <c r="C19" t="n">
-        <v>0.859565642777115</v>
+        <v>0.7205050246400748</v>
       </c>
       <c r="D19" t="n">
-        <v>0.4839457167370671</v>
+        <v>0.9332487798237872</v>
       </c>
       <c r="E19" t="n">
-        <v>0.6437885756651057</v>
+        <v>0.8681917009823001</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1104866489768028</v>
+        <v>0.1084617972373962</v>
       </c>
       <c r="G19" t="n">
-        <v>0.1064554750919342</v>
+        <v>0.2672868967056274</v>
       </c>
       <c r="H19" t="n">
-        <v>0.6035439968109131</v>
+        <v>0.1629593372344971</v>
       </c>
       <c r="I19" t="n">
-        <v>0.3403793573379517</v>
+        <v>0.218192458152771</v>
       </c>
     </row>
     <row r="20">
@@ -1040,214 +1040,214 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.9003355565113308</v>
+        <v>0.9020052881573387</v>
       </c>
       <c r="C20" t="n">
-        <v>0.8494650899464213</v>
+        <v>0.7203864744623816</v>
       </c>
       <c r="D20" t="n">
-        <v>0.4852699667348023</v>
+        <v>0.9332865512042831</v>
       </c>
       <c r="E20" t="n">
-        <v>0.6403090906851281</v>
+        <v>0.8681822622065581</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1102991625666618</v>
+        <v>0.1084512695670128</v>
       </c>
       <c r="G20" t="n">
-        <v>0.1141121387481689</v>
+        <v>0.2674002647399902</v>
       </c>
       <c r="H20" t="n">
-        <v>0.6019952297210693</v>
+        <v>0.1628671139478683</v>
       </c>
       <c r="I20" t="n">
-        <v>0.3437041938304901</v>
+        <v>0.218208059668541</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>model_9_7_17</t>
+          <t>model_9_7_19</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.9005968150792278</v>
+        <v>0.9020572058008475</v>
       </c>
       <c r="C21" t="n">
-        <v>0.8506961148879899</v>
+        <v>0.7206109280800526</v>
       </c>
       <c r="D21" t="n">
-        <v>0.4885180148157867</v>
+        <v>0.9333046551495421</v>
       </c>
       <c r="E21" t="n">
-        <v>0.642696304736037</v>
+        <v>0.8682637874675794</v>
       </c>
       <c r="F21" t="n">
-        <v>0.1100100353360176</v>
+        <v>0.1083938106894493</v>
       </c>
       <c r="G21" t="n">
-        <v>0.1131789833307266</v>
+        <v>0.2671856284141541</v>
       </c>
       <c r="H21" t="n">
-        <v>0.5981965661048889</v>
+        <v>0.1628229320049286</v>
       </c>
       <c r="I21" t="n">
-        <v>0.3414230644702911</v>
+        <v>0.2180731147527695</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>model_9_7_24</t>
+          <t>model_9_7_23</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.9028610600798771</v>
+        <v>0.9021922248315151</v>
       </c>
       <c r="C22" t="n">
-        <v>0.8413102936945276</v>
+        <v>0.7211245895744522</v>
       </c>
       <c r="D22" t="n">
-        <v>0.4999947293782988</v>
+        <v>0.9332116268223001</v>
       </c>
       <c r="E22" t="n">
-        <v>0.6453652002555365</v>
+        <v>0.8683555606526273</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1075041815638542</v>
+        <v>0.1082443818449974</v>
       </c>
       <c r="G22" t="n">
-        <v>0.1202938407659531</v>
+        <v>0.2666943967342377</v>
       </c>
       <c r="H22" t="n">
-        <v>0.5847741365432739</v>
+        <v>0.163050040602684</v>
       </c>
       <c r="I22" t="n">
-        <v>0.3388728201389313</v>
+        <v>0.2179211974143982</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>model_9_7_3</t>
+          <t>model_9_7_24</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.9044115056326769</v>
+        <v>0.9022066904487339</v>
       </c>
       <c r="C23" t="n">
-        <v>0.8223194633451587</v>
+        <v>0.7213903928782636</v>
       </c>
       <c r="D23" t="n">
-        <v>0.7738614355189148</v>
+        <v>0.9330106289311837</v>
       </c>
       <c r="E23" t="n">
-        <v>0.7951281635663352</v>
+        <v>0.8682980723926207</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1057882979512215</v>
+        <v>0.1082283779978752</v>
       </c>
       <c r="G23" t="n">
-        <v>0.1346897482872009</v>
+        <v>0.266440212726593</v>
       </c>
       <c r="H23" t="n">
-        <v>0.2644771635532379</v>
+        <v>0.1635407209396362</v>
       </c>
       <c r="I23" t="n">
-        <v>0.1957661658525467</v>
+        <v>0.2180163562297821</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>model_9_7_4</t>
+          <t>model_9_7_20</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.9066105970388703</v>
+        <v>0.9022417025627009</v>
       </c>
       <c r="C24" t="n">
-        <v>0.8228721981381693</v>
+        <v>0.7196165866199804</v>
       </c>
       <c r="D24" t="n">
-        <v>0.7753858967723914</v>
+        <v>0.9342273945103956</v>
       </c>
       <c r="E24" t="n">
-        <v>0.796238275788486</v>
+        <v>0.8685997595656819</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1033545508980751</v>
+        <v>0.1081896275281906</v>
       </c>
       <c r="G24" t="n">
-        <v>0.1342707425355911</v>
+        <v>0.2681365609169006</v>
       </c>
       <c r="H24" t="n">
-        <v>0.262694239616394</v>
+        <v>0.1605702489614487</v>
       </c>
       <c r="I24" t="n">
-        <v>0.1947053670883179</v>
+        <v>0.2175169587135315</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>model_9_7_5</t>
+          <t>model_9_7_21</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.9067589559071888</v>
+        <v>0.9023302407047504</v>
       </c>
       <c r="C25" t="n">
-        <v>0.8254292811009222</v>
+        <v>0.7212072764488655</v>
       </c>
       <c r="D25" t="n">
-        <v>0.7728247209979152</v>
+        <v>0.9337649928233436</v>
       </c>
       <c r="E25" t="n">
-        <v>0.7958370216668975</v>
+        <v>0.8687652727625801</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1031903550028801</v>
+        <v>0.1080916449427605</v>
       </c>
       <c r="G25" t="n">
-        <v>0.1323323547840118</v>
+        <v>0.2666153013706207</v>
       </c>
       <c r="H25" t="n">
-        <v>0.2656896412372589</v>
+        <v>0.1616991013288498</v>
       </c>
       <c r="I25" t="n">
-        <v>0.195088803768158</v>
+        <v>0.2172429859638214</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>model_9_7_7</t>
+          <t>model_9_7_22</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.9093891940371758</v>
+        <v>0.9023606893836169</v>
       </c>
       <c r="C26" t="n">
-        <v>0.8525916334208906</v>
+        <v>0.721901239882354</v>
       </c>
       <c r="D26" t="n">
-        <v>0.6658961020931512</v>
+        <v>0.9334766593612981</v>
       </c>
       <c r="E26" t="n">
-        <v>0.7456575471226021</v>
+        <v>0.8687770591626337</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1002794653177261</v>
+        <v>0.1080579534173012</v>
       </c>
       <c r="G26" t="n">
-        <v>0.1117420867085457</v>
+        <v>0.2659516930580139</v>
       </c>
       <c r="H26" t="n">
-        <v>0.3907464742660522</v>
+        <v>0.162403017282486</v>
       </c>
       <c r="I26" t="n">
-        <v>0.2430380433797836</v>
+        <v>0.2172234654426575</v>
       </c>
     </row>
   </sheetData>
